--- a/datasets/large_cap.xlsx
+++ b/datasets/large_cap.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm/Desktop/RMSC4002/fitted_garch_variance_returns-master-2/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74410F-3C29-1F4A-9C6D-CC2C42BDD3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="basic_materials" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="capital_goods" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="consumer_cyclical" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="consumer_noncyclical" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="energy" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="financial" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="healthcare" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="technology" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="transportation" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="utilities" sheetId="10" r:id="rId12"/>
+    <sheet name="basic_materials" sheetId="1" r:id="rId1"/>
+    <sheet name="capital_goods" sheetId="2" r:id="rId2"/>
+    <sheet name="consumer_cyclical" sheetId="3" r:id="rId3"/>
+    <sheet name="consumer_noncyclical" sheetId="4" r:id="rId4"/>
+    <sheet name="energy" sheetId="5" r:id="rId5"/>
+    <sheet name="financial" sheetId="6" r:id="rId6"/>
+    <sheet name="healthcare" sheetId="7" r:id="rId7"/>
+    <sheet name="technology" sheetId="8" r:id="rId8"/>
+    <sheet name="transportation" sheetId="9" r:id="rId9"/>
+    <sheet name="utilities" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -67,24 +76,12 @@
     <t>ASML</t>
   </si>
   <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>HON</t>
-  </si>
-  <si>
     <t>Lockheed Martin</t>
   </si>
   <si>
     <t>LMT</t>
   </si>
   <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
     <t>Caterpillar</t>
   </si>
   <si>
@@ -326,25 +323,56 @@
   </si>
   <si>
     <t>SO</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raytheon Technologies</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Wawati TC"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -352,90 +380,356 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.43"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -457,7 +751,7 @@
         <v>123.69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -468,7 +762,7 @@
         <v>120.09</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -479,7 +773,7 @@
         <v>95.56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -490,7 +784,7 @@
         <v>64.48</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -501,25 +795,27 @@
         <v>63.85</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,80 +826,84 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1">
         <v>148.93</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>70.25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
-        <v>69.68</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>69.680000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>67.73</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1">
         <v>63.23</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.0"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -625,71 +925,73 @@
         <v>155.51</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="1">
+        <v>119.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1">
-        <v>125.77</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>101.68</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>95.47</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>90.81</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,77 +1002,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>195.58</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>187.51</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>105.23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>98.91</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>79.36</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,77 +1085,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1">
         <v>189.38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>155.25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>111.85</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>107.03</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <v>96.1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,77 +1168,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>141.26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1">
         <v>138.1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1">
         <v>112.31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>105.54</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>85.16</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,77 +1251,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>185.18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1">
         <v>166.16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
-        <v>158.3</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>158.30000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>122.39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>102.7</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,77 +1334,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>194.8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>194.55</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>193.98</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>186.25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1">
-        <v>155.23</v>
+        <v>155.22999999999999</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,77 +1417,79 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>183.8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1">
         <v>170.81</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1">
         <v>166.77</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1">
         <v>155.51</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1">
-        <v>155.42</v>
+        <v>155.41999999999999</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,62 +1500,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>141.14</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>141.13999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1">
         <v>124.92</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1">
-        <v>74.51</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>74.510000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
         <v>72.08</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1">
         <v>64.41</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/large_cap.xlsx
+++ b/datasets/large_cap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccm/Desktop/RMSC4002/fitted_garch_variance_returns-master-2/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74410F-3C29-1F4A-9C6D-CC2C42BDD3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C973417C-EA0B-EE4D-B9E1-5B2FAA076C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10060" yWindow="500" windowWidth="28800" windowHeight="16660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_materials" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,6 @@
     <t>HESAF</t>
   </si>
   <si>
-    <t>Christian Dior</t>
-  </si>
-  <si>
-    <t>CHDRF</t>
-  </si>
-  <si>
     <t>PepsiCo</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
     <t>ACGBF</t>
   </si>
   <si>
-    <t>Prosus</t>
-  </si>
-  <si>
-    <t>PROSF</t>
-  </si>
-  <si>
     <t>AIA Group</t>
   </si>
   <si>
@@ -311,12 +299,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Oersted</t>
-  </si>
-  <si>
-    <t>DOGEF</t>
   </si>
   <si>
     <t>Southern</t>
@@ -338,6 +320,30 @@
   </si>
   <si>
     <t>RTX</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSLA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesla</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENB</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enbridge</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPMorgan</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +817,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -828,10 +836,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>148.93</v>
@@ -839,10 +847,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1">
         <v>70.25</v>
@@ -850,21 +858,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1">
         <v>69.680000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>94</v>
+      <c r="A5" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1">
         <v>67.73</v>
@@ -872,10 +880,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1">
         <v>63.23</v>
@@ -894,7 +902,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -927,10 +935,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1">
         <v>119.42</v>
@@ -949,10 +957,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
         <v>95.47</v>
@@ -987,7 +995,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1047,11 +1057,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
+      <c r="A6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1">
         <v>79.36</v>
@@ -1087,10 +1097,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>189.38</v>
@@ -1098,10 +1108,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>155.25</v>
@@ -1109,10 +1119,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>111.85</v>
@@ -1120,10 +1130,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>107.03</v>
@@ -1131,10 +1141,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
         <v>96.1</v>
@@ -1170,10 +1180,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>141.26</v>
@@ -1181,10 +1191,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>138.1</v>
@@ -1192,10 +1202,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>112.31</v>
@@ -1203,10 +1213,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>105.54</v>
@@ -1214,10 +1224,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>85.16</v>
@@ -1236,7 +1246,9 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1253,10 +1265,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
         <v>185.18</v>
@@ -1264,21 +1276,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>166.16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
+      <c r="A4" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>158.30000000000001</v>
@@ -1286,10 +1298,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>122.39</v>
@@ -1297,10 +1309,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>102.7</v>
@@ -1336,10 +1348,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>194.8</v>
@@ -1347,10 +1359,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>194.55</v>
@@ -1358,10 +1370,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>193.98</v>
@@ -1369,10 +1381,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1">
         <v>186.25</v>
@@ -1380,10 +1392,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
         <v>155.22999999999999</v>
@@ -1419,10 +1431,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1">
         <v>183.8</v>
@@ -1430,10 +1442,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1">
         <v>170.81</v>
@@ -1441,10 +1453,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>166.77</v>
@@ -1452,10 +1464,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>155.51</v>
@@ -1463,10 +1475,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>155.41999999999999</v>
@@ -1502,10 +1514,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1">
         <v>141.13999999999999</v>
@@ -1513,10 +1525,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1">
         <v>124.92</v>
@@ -1524,10 +1536,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
         <v>74.510000000000005</v>
@@ -1535,10 +1547,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1">
         <v>72.08</v>
@@ -1546,10 +1558,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
         <v>64.41</v>
